--- a/Data/Output_order.xlsx
+++ b/Data/Output_order.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sophi\Antarctic-Food-Optimisation\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7AF83037-BF00-4103-9285-8752CE0E5798}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B61EFA6E-61FF-4838-A55B-9BF849AFFEC2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{A634A724-ACBA-4A6D-9815-6115CD23892F}"/>
   </bookViews>
